--- a/sort.xlsx
+++ b/sort.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="90" windowWidth="8580" windowHeight="5850" activeTab="3"/>
+    <workbookView xWindow="195" yWindow="90" windowWidth="8580" windowHeight="5850"/>
   </bookViews>
   <sheets>
     <sheet name="Counting Sort" sheetId="1" r:id="rId1"/>
-    <sheet name="Insertion Sort" sheetId="2" r:id="rId2"/>
+    <sheet name="Bubble sort" sheetId="2" r:id="rId2"/>
     <sheet name="Heap Sort" sheetId="3" r:id="rId3"/>
     <sheet name="Общая" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -17,195 +17,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
-  <si>
-    <t>0.001294</t>
-  </si>
-  <si>
-    <t>0.002275</t>
-  </si>
-  <si>
-    <t>0.004197</t>
-  </si>
-  <si>
-    <t>0.005306</t>
-  </si>
-  <si>
-    <t>0.006372</t>
-  </si>
-  <si>
-    <t>0.007402</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.007476</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.009030</t>
-  </si>
-  <si>
-    <t>0.009249</t>
-  </si>
-  <si>
-    <t>0.010506</t>
-  </si>
-  <si>
-    <t>0.012918</t>
-  </si>
-  <si>
-    <t>0.012435</t>
-  </si>
-  <si>
-    <t>0.012695</t>
-  </si>
-  <si>
-    <t>0.014243</t>
-  </si>
-  <si>
-    <t>0.015463</t>
-  </si>
-  <si>
-    <t>0.016560</t>
-  </si>
-  <si>
-    <t>0.016663</t>
-  </si>
-  <si>
-    <t>0.016915</t>
-  </si>
-  <si>
-    <t>0.018510</t>
-  </si>
-  <si>
-    <t>0.023306</t>
-  </si>
-  <si>
-    <t>11.485177</t>
-  </si>
-  <si>
-    <t>23.199735</t>
-  </si>
-  <si>
-    <t>45.806810</t>
-  </si>
-  <si>
-    <t>73.079446</t>
-  </si>
-  <si>
-    <t>103.283791</t>
-  </si>
-  <si>
-    <t>136.961720</t>
-  </si>
-  <si>
-    <t>183.186396</t>
-  </si>
-  <si>
-    <t>224.960272</t>
-  </si>
-  <si>
-    <t>283.900859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">342.713716 </t>
-  </si>
-  <si>
-    <t>398.667019</t>
-  </si>
-  <si>
-    <t>470.917010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">558.373619 </t>
-  </si>
-  <si>
-    <t>640.291327</t>
-  </si>
-  <si>
-    <t>882.270260</t>
-  </si>
-  <si>
-    <t>957.464947</t>
-  </si>
-  <si>
-    <t>1066.463581</t>
-  </si>
-  <si>
-    <t>1161.507436</t>
-  </si>
-  <si>
-    <t>1212.930407</t>
-  </si>
-  <si>
-    <t>0.013561</t>
-  </si>
-  <si>
-    <t>0.024854</t>
-  </si>
-  <si>
-    <t>0.035761</t>
-  </si>
-  <si>
-    <t>0.046262</t>
-  </si>
-  <si>
-    <t>0.056257</t>
-  </si>
-  <si>
-    <t>0.072759</t>
-  </si>
-  <si>
-    <t>0.081678</t>
-  </si>
-  <si>
-    <t>0.095127</t>
-  </si>
-  <si>
-    <t>0.100140</t>
-  </si>
-  <si>
-    <t>0.115797</t>
-  </si>
-  <si>
-    <t>0.130879</t>
-  </si>
-  <si>
-    <t>0.136199</t>
-  </si>
-  <si>
-    <t>0.156336</t>
-  </si>
-  <si>
-    <t>0.167701</t>
-  </si>
-  <si>
-    <t>0.172551</t>
-  </si>
-  <si>
-    <t>0.198252</t>
-  </si>
-  <si>
-    <t>0.201734</t>
-  </si>
-  <si>
-    <t>0.221804</t>
-  </si>
-  <si>
-    <t>0.245271</t>
-  </si>
-  <si>
-    <t>0.236524</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>Counting  sort</t>
-  </si>
-  <si>
-    <t>Insertion sort</t>
   </si>
   <si>
     <t>Heap sort</t>
   </si>
   <si>
     <t>Bubble sort</t>
+  </si>
+  <si>
+    <t>bubble sort</t>
   </si>
 </sst>
 </file>
@@ -277,7 +100,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -372,90 +197,89 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.294E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.2750000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.1970000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5.306E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6.3720000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>7.4019999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>7.476E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>9.0299999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>9.2490000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1.0506E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1.2918000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1.2435E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1.2695E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1.4243E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1.5462999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1.6559999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>1.6663000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>1.6914999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>1.8509999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>2.3306E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="130898176"/>
-        <c:axId val="130916352"/>
+        <c:axId val="126126720"/>
+        <c:axId val="126140800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="130898176"/>
+        <c:axId val="126126720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130916352"/>
+        <c:crossAx val="126140800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="130916352"/>
+        <c:axId val="126140800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -463,20 +287,21 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130898176"/>
+        <c:crossAx val="126126720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -796,27 +621,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="134432256"/>
-        <c:axId val="134433792"/>
+        <c:axId val="126183296"/>
+        <c:axId val="126184832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134432256"/>
+        <c:axId val="126183296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134433792"/>
+        <c:crossAx val="126184832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134433792"/>
+        <c:axId val="126184832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -824,7 +648,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134432256"/>
+        <c:crossAx val="126183296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -838,7 +662,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1247,31 +1071,90 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>14.1721</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.707599999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127.3845</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>226.61770000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>354.47340000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>510.0763</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>687.61289999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>893.75160000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1127.8878999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1416.1904</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1728.3617999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2092.9324000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2493.6975000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2976.2298000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3404.2496000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3845.8980999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4287.5466999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4729.1949999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5170.8346000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5691.6641</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="134481024"/>
-        <c:axId val="134482560"/>
+        <c:axId val="127407616"/>
+        <c:axId val="127409152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134481024"/>
+        <c:axId val="127407616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134482560"/>
+        <c:crossAx val="127409152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134482560"/>
+        <c:axId val="127409152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1279,7 +1162,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134481024"/>
+        <c:crossAx val="127407616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1293,7 +1176,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1303,16 +1186,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>316230</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>5715</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1686,8 +1569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1698,167 +1581,167 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>50000</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
+      <c r="B2">
+        <v>1.294E-3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>100000</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
+      <c r="B3">
+        <v>2.2750000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>150000</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
+      <c r="B4">
+        <v>4.1970000000000002E-3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>200000</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
+      <c r="B5">
+        <v>5.306E-3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>250000</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
+      <c r="B6">
+        <v>6.3720000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>300000</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
+      <c r="B7">
+        <v>7.4019999999999997E-3</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>350000</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
+      <c r="B8">
+        <v>7.476E-3</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>400000</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
+      <c r="B9">
+        <v>9.0299999999999998E-3</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>450000</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
+      <c r="B10">
+        <v>9.2490000000000003E-3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>500000</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
+      <c r="B11">
+        <v>1.0506E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>550000</v>
       </c>
-      <c r="B12" t="s">
-        <v>10</v>
+      <c r="B12">
+        <v>1.2918000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1">
         <v>600000</v>
       </c>
-      <c r="B13" t="s">
-        <v>11</v>
+      <c r="B13">
+        <v>1.2435E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>650000</v>
       </c>
-      <c r="B14" t="s">
-        <v>12</v>
+      <c r="B14">
+        <v>1.2695E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1">
         <v>700000</v>
       </c>
-      <c r="B15" t="s">
-        <v>13</v>
+      <c r="B15">
+        <v>1.4243E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>750000</v>
       </c>
-      <c r="B16" t="s">
-        <v>14</v>
+      <c r="B16">
+        <v>1.5462999999999999E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>800000</v>
       </c>
-      <c r="B17" t="s">
-        <v>15</v>
+      <c r="B17">
+        <v>1.6559999999999998E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>850000</v>
       </c>
-      <c r="B18" t="s">
-        <v>16</v>
+      <c r="B18">
+        <v>1.6663000000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1">
         <v>900000</v>
       </c>
-      <c r="B19" t="s">
-        <v>17</v>
+      <c r="B19">
+        <v>1.6914999999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>950000</v>
       </c>
-      <c r="B20" t="s">
-        <v>18</v>
+      <c r="B20">
+        <v>1.8509999999999999E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>1000000</v>
       </c>
-      <c r="B21" t="s">
-        <v>19</v>
+      <c r="B21">
+        <v>2.3306E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1872,7 +1755,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B21"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1884,7 +1767,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1892,159 +1775,159 @@
         <v>50000</v>
       </c>
       <c r="B2">
-        <v>2.6068519999999999</v>
+        <v>14.1721</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>100000</v>
       </c>
-      <c r="B3" t="s">
-        <v>20</v>
+      <c r="B3">
+        <v>56.707599999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>150000</v>
       </c>
-      <c r="B4" t="s">
-        <v>21</v>
+      <c r="B4">
+        <v>127.3845</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>200000</v>
       </c>
-      <c r="B5" t="s">
-        <v>22</v>
+      <c r="B5">
+        <v>226.61770000000001</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>250000</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
+      <c r="B6">
+        <v>354.47340000000003</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>300000</v>
       </c>
-      <c r="B7" t="s">
-        <v>24</v>
+      <c r="B7">
+        <v>510.0763</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>350000</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
+      <c r="B8">
+        <v>687.61289999999997</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>400000</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
+      <c r="B9">
+        <v>893.75160000000005</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>450000</v>
       </c>
-      <c r="B10" t="s">
-        <v>27</v>
+      <c r="B10">
+        <v>1127.8878999999999</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>500000</v>
       </c>
-      <c r="B11" t="s">
-        <v>28</v>
+      <c r="B11">
+        <v>1416.1904</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>550000</v>
       </c>
-      <c r="B12" t="s">
-        <v>29</v>
+      <c r="B12">
+        <v>1728.3617999999999</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1">
         <v>600000</v>
       </c>
-      <c r="B13" t="s">
-        <v>30</v>
+      <c r="B13">
+        <v>2092.9324000000001</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>650000</v>
       </c>
-      <c r="B14" t="s">
-        <v>31</v>
+      <c r="B14">
+        <v>2493.6975000000002</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1">
         <v>700000</v>
       </c>
-      <c r="B15" t="s">
-        <v>32</v>
+      <c r="B15">
+        <v>2976.2298000000001</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>750000</v>
       </c>
-      <c r="B16" t="s">
-        <v>33</v>
+      <c r="B16">
+        <v>3404.2496000000001</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>800000</v>
       </c>
-      <c r="B17" t="s">
-        <v>34</v>
+      <c r="B17">
+        <v>3845.8980999999999</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>850000</v>
       </c>
-      <c r="B18" t="s">
-        <v>35</v>
+      <c r="B18">
+        <v>4287.5466999999999</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1">
         <v>900000</v>
       </c>
-      <c r="B19" t="s">
-        <v>36</v>
+      <c r="B19">
+        <v>4729.1949999999997</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>950000</v>
       </c>
-      <c r="B20" t="s">
-        <v>37</v>
+      <c r="B20">
+        <v>5170.8346000000001</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>1000000</v>
       </c>
-      <c r="B21" t="s">
-        <v>38</v>
+      <c r="B21">
+        <v>5691.6641</v>
       </c>
     </row>
   </sheetData>
@@ -2057,7 +1940,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B22"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2068,7 +1951,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1"/>
     </row>
@@ -2076,8 +1959,8 @@
       <c r="A2" s="1">
         <v>50000</v>
       </c>
-      <c r="B2" t="s">
-        <v>39</v>
+      <c r="B2">
+        <v>1.3561E-2</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -2085,8 +1968,8 @@
       <c r="A3" s="1">
         <v>100000</v>
       </c>
-      <c r="B3" t="s">
-        <v>40</v>
+      <c r="B3">
+        <v>2.4854000000000001E-2</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2094,8 +1977,8 @@
       <c r="A4" s="1">
         <v>150000</v>
       </c>
-      <c r="B4" t="s">
-        <v>41</v>
+      <c r="B4">
+        <v>3.5761000000000001E-2</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -2103,8 +1986,8 @@
       <c r="A5" s="1">
         <v>200000</v>
       </c>
-      <c r="B5" t="s">
-        <v>42</v>
+      <c r="B5">
+        <v>4.6261999999999998E-2</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2112,8 +1995,8 @@
       <c r="A6" s="1">
         <v>250000</v>
       </c>
-      <c r="B6" t="s">
-        <v>43</v>
+      <c r="B6">
+        <v>5.6257000000000001E-2</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -2121,8 +2004,8 @@
       <c r="A7" s="1">
         <v>300000</v>
       </c>
-      <c r="B7" t="s">
-        <v>44</v>
+      <c r="B7">
+        <v>7.2759000000000004E-2</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -2130,8 +2013,8 @@
       <c r="A8" s="1">
         <v>350000</v>
       </c>
-      <c r="B8" t="s">
-        <v>45</v>
+      <c r="B8">
+        <v>8.1678000000000001E-2</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -2139,8 +2022,8 @@
       <c r="A9" s="1">
         <v>400000</v>
       </c>
-      <c r="B9" t="s">
-        <v>46</v>
+      <c r="B9">
+        <v>9.5127000000000003E-2</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -2148,8 +2031,8 @@
       <c r="A10" s="1">
         <v>450000</v>
       </c>
-      <c r="B10" t="s">
-        <v>47</v>
+      <c r="B10">
+        <v>0.10014000000000001</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -2157,8 +2040,8 @@
       <c r="A11" s="1">
         <v>500000</v>
       </c>
-      <c r="B11" t="s">
-        <v>48</v>
+      <c r="B11">
+        <v>0.115797</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -2166,8 +2049,8 @@
       <c r="A12" s="1">
         <v>550000</v>
       </c>
-      <c r="B12" t="s">
-        <v>49</v>
+      <c r="B12">
+        <v>0.130879</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -2175,8 +2058,8 @@
       <c r="A13" s="1">
         <v>600000</v>
       </c>
-      <c r="B13" t="s">
-        <v>50</v>
+      <c r="B13">
+        <v>0.13619899999999999</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -2184,8 +2067,8 @@
       <c r="A14" s="1">
         <v>650000</v>
       </c>
-      <c r="B14" t="s">
-        <v>51</v>
+      <c r="B14">
+        <v>0.156336</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -2193,8 +2076,8 @@
       <c r="A15" s="1">
         <v>700000</v>
       </c>
-      <c r="B15" t="s">
-        <v>52</v>
+      <c r="B15">
+        <v>0.16770099999999999</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -2202,8 +2085,8 @@
       <c r="A16" s="1">
         <v>750000</v>
       </c>
-      <c r="B16" t="s">
-        <v>53</v>
+      <c r="B16">
+        <v>0.17255100000000001</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -2211,8 +2094,8 @@
       <c r="A17" s="1">
         <v>800000</v>
       </c>
-      <c r="B17" t="s">
-        <v>54</v>
+      <c r="B17">
+        <v>0.19825200000000001</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -2220,8 +2103,8 @@
       <c r="A18" s="1">
         <v>850000</v>
       </c>
-      <c r="B18" t="s">
-        <v>55</v>
+      <c r="B18">
+        <v>0.201734</v>
       </c>
       <c r="D18" s="1"/>
     </row>
@@ -2229,8 +2112,8 @@
       <c r="A19" s="1">
         <v>900000</v>
       </c>
-      <c r="B19" t="s">
-        <v>56</v>
+      <c r="B19">
+        <v>0.221804</v>
       </c>
       <c r="D19" s="1"/>
     </row>
@@ -2238,8 +2121,8 @@
       <c r="A20" s="1">
         <v>950000</v>
       </c>
-      <c r="B20" t="s">
-        <v>57</v>
+      <c r="B20">
+        <v>0.24527099999999999</v>
       </c>
       <c r="D20" s="1"/>
     </row>
@@ -2247,8 +2130,8 @@
       <c r="A21" s="1">
         <v>1000000</v>
       </c>
-      <c r="B21" t="s">
-        <v>58</v>
+      <c r="B21">
+        <v>0.23652400000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2260,8 +2143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2273,13 +2156,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2292,6 +2175,9 @@
       <c r="C2">
         <v>1.3561E-2</v>
       </c>
+      <c r="D2">
+        <v>14.1721</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
@@ -2303,6 +2189,9 @@
       <c r="C3">
         <v>2.4854000000000001E-2</v>
       </c>
+      <c r="D3">
+        <v>56.707599999999999</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
@@ -2314,6 +2203,9 @@
       <c r="C4">
         <v>3.5761000000000001E-2</v>
       </c>
+      <c r="D4">
+        <v>127.3845</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
@@ -2325,6 +2217,9 @@
       <c r="C5">
         <v>4.6261999999999998E-2</v>
       </c>
+      <c r="D5">
+        <v>226.61770000000001</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
@@ -2336,6 +2231,9 @@
       <c r="C6">
         <v>5.6257000000000001E-2</v>
       </c>
+      <c r="D6">
+        <v>354.47340000000003</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
@@ -2347,6 +2245,9 @@
       <c r="C7">
         <v>7.2759000000000004E-2</v>
       </c>
+      <c r="D7">
+        <v>510.0763</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
@@ -2358,6 +2259,9 @@
       <c r="C8">
         <v>8.1678000000000001E-2</v>
       </c>
+      <c r="D8">
+        <v>687.61289999999997</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
@@ -2369,6 +2273,9 @@
       <c r="C9">
         <v>9.5127000000000003E-2</v>
       </c>
+      <c r="D9">
+        <v>893.75160000000005</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
@@ -2380,6 +2287,9 @@
       <c r="C10">
         <v>0.10014000000000001</v>
       </c>
+      <c r="D10">
+        <v>1127.8878999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
@@ -2391,6 +2301,9 @@
       <c r="C11">
         <v>0.115797</v>
       </c>
+      <c r="D11">
+        <v>1416.1904</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
@@ -2402,6 +2315,9 @@
       <c r="C12">
         <v>0.130879</v>
       </c>
+      <c r="D12">
+        <v>1728.3617999999999</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
@@ -2413,6 +2329,9 @@
       <c r="C13">
         <v>0.13619899999999999</v>
       </c>
+      <c r="D13">
+        <v>2092.9324000000001</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
@@ -2424,6 +2343,9 @@
       <c r="C14">
         <v>0.156336</v>
       </c>
+      <c r="D14">
+        <v>2493.6975000000002</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
@@ -2435,6 +2357,9 @@
       <c r="C15">
         <v>0.16770099999999999</v>
       </c>
+      <c r="D15">
+        <v>2976.2298000000001</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
@@ -2446,8 +2371,11 @@
       <c r="C16">
         <v>0.17255100000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <v>3404.2496000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>800000</v>
       </c>
@@ -2457,8 +2385,11 @@
       <c r="C17">
         <v>0.19825200000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>3845.8980999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>850000</v>
       </c>
@@ -2468,8 +2399,11 @@
       <c r="C18">
         <v>0.201734</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>4287.5466999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>900000</v>
       </c>
@@ -2479,8 +2413,11 @@
       <c r="C19">
         <v>0.221804</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>4729.1949999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>950000</v>
       </c>
@@ -2490,8 +2427,11 @@
       <c r="C20">
         <v>0.24527099999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <v>5170.8346000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>1000000</v>
       </c>
@@ -2500,6 +2440,9 @@
       </c>
       <c r="C21">
         <v>0.23652400000000001</v>
+      </c>
+      <c r="D21">
+        <v>5691.6641</v>
       </c>
     </row>
   </sheetData>
